--- a/flows/TILL_fund_flow_data.xlsx
+++ b/flows/TILL_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B447"/>
+  <dimension ref="A1:B465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4905,6 +4905,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
